--- a/WebDataExtraction/OutPut/Watches.xlsx
+++ b/WebDataExtraction/OutPut/Watches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hari.krishnamorri\Desktop\test\WebDataExtractionPOC_BOT4\WebDataExtraction\OutPut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6FDFA6-5794-4582-80E6-F466D41DD705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB4D6DC-0354-48FB-9470-2ED9A891C3B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,11 @@
     <t>Price</t>
   </si>
   <si>
-    <t>4.3 out of 5 stars</t>
-  </si>
-  <si>
-    <t>Mens Watches Ultra-Thin Minimalist Waterproof - Fashion Wrist Watch for Men Unisex Dress with Stainless Steel Mesh Band</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                     Sponsored
                 </t>
   </si>
   <si>
-    <t>$28
-.
-96</t>
-  </si>
-  <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
@@ -135,9 +124,6 @@
     <t>Garmin 010-02064-00 Instinct, Rugged Outdoor Watch with GPS, Features GLONASS and Galileo, Heart Rate Monitoring and 3-Axis Compass, Graphite</t>
   </si>
   <si>
-    <t>Mens Watches Ultra-Thin Minimalist Waterproof-Fashion Wrist Watch for Men Unisex Dress with Leather Band</t>
-  </si>
-  <si>
     <t>$188
 .
 50</t>
@@ -151,10 +137,26 @@
 89</t>
   </si>
   <si>
-    <t>4.1 out of 5 stars</t>
-  </si>
-  <si>
-    <t>Mens Watches Minimalist Ultra Thin Waterproof Fashion Dressy Wrist Watch for Men Business Casual Luxury Quartz Analog Watch</t>
+    <t>4.4 out of 5 stars</t>
+  </si>
+  <si>
+    <t>BENYAR Men's Watches Waterproof Sport Military Watch for Men Multifunction Chronograph Black Fashion Quartz Wristwatches Calendar with Leather Strap</t>
+  </si>
+  <si>
+    <t>SINOBI Sport Military Rubber Digital and Quartz Men Watches with Alarm, Luminous Dual Time Auto Date Watches</t>
+  </si>
+  <si>
+    <t>Military Watches for Men Men's Leather Strap Analog Quartz Wristwatch Fashion Sport Watch for Men Chronograph Date CAOWTAN</t>
+  </si>
+  <si>
+    <t>$20
+.
+99</t>
+  </si>
+  <si>
+    <t>$36
+.
+99</t>
   </si>
 </sst>
 </file>
@@ -190,12 +192,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,188 +501,188 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
-        <v>4632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="2">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C20" s="3">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
